--- a/students/base _practica.xlsx
+++ b/students/base _practica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\creaj21\sistemaCreaj-app\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC8529-9225-453B-ADEC-CEF8466981DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F750BB3F-E93B-4257-8B29-05CCC4CD0705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5170509-CE82-4A9C-8D45-B5EFC0FBDD21}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>INGRESO DE DATOS DE PROYECTOS</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>El tema que se va a exponer es sobre los números reales, además de tener en cuenta lo demás</t>
+  </si>
+  <si>
+    <t>Números reales</t>
+  </si>
+  <si>
+    <t>Creacióin de una ruleta donde se puede tener diferentes número reales</t>
+  </si>
+  <si>
+    <t>Corral</t>
+  </si>
+  <si>
+    <t>Victorina</t>
+  </si>
+  <si>
+    <t>Pazos</t>
+  </si>
+  <si>
+    <t>Pedro Antonio</t>
+  </si>
+  <si>
+    <t>Torrejon</t>
+  </si>
+  <si>
+    <t>Yassine</t>
+  </si>
+  <si>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>Tercer ciclo</t>
   </si>
 </sst>
 </file>
@@ -593,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A85AA-C7E2-474F-A3CC-664D2EE6A990}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,8 +645,12 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -762,13 +796,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -785,19 +819,37 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="4">
+        <v>20210034</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="4">
+        <v>20198834</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="4">
+        <v>20145562</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
